--- a/data/post2002DB-v3.xlsx
+++ b/data/post2002DB-v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hildad/Documents/GitHub/lyingpendatabases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8007DED8-2B40-5B43-9669-94009C6A1058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5510202-D7C3-DA4A-A52C-88E09EB40E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18200" windowHeight="18000" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Database of Post-2002 Fragments" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="595">
   <si>
     <t>DSS F. No.</t>
   </si>
@@ -1913,10 +1913,6 @@
   </si>
   <si>
     <t>ArugLev fA:1–4 in DSSB-C and DSSB-M</t>
-  </si>
-  <si>
-    <t>2005: $3000  for ArugLev frgs a-d
-Bedouin from the Rashaidah tribe ➤ Hanan Eshel</t>
   </si>
   <si>
     <t>3.5 x 3.5</t>
@@ -6222,14 +6218,6 @@
     <t>Special Visit Ministry?</t>
   </si>
   <si>
-    <t>2008: $1.2 million  (William Kando; Ganor according to Estrin 2013)
-2011: €30 mill (James H. Charlesworth to Hershel Shanks 2011)
-2011: $42 mill
-(William Kando) [Fields 2011]
-2011– : $35–70 million  (William Kando)
-2013: upwards of £26 million (Lee Biondi according to Parker 2013)</t>
-  </si>
-  <si>
     <t>Feb 2009: $145,000 (Michael R. Thompson) [Davila 2009]</t>
   </si>
   <si>
@@ -6249,10 +6237,6 @@
   </si>
   <si>
     <t>"[a] family said it donated $500,000 for the purchase" [Estrin 2013]</t>
-  </si>
-  <si>
-    <t>2009: $1,38 million  (total price of fragments APU1–5) [Davis  2017, 237 n.22]
-Michael R. Thompson → Lee Biondi ➤ Azusa Pacific University [Estrin 2013]</t>
   </si>
   <si>
     <t>2009: $1,38 millon  (total price of fragments APU1–5; Davis 2017, 237 n.22)
@@ -6265,10 +6249,6 @@
   <si>
     <t>2009: $ 1.38 million (total price of fragments APU1–5) [Davis 2017, 237 n.22]
 William Kando(?) ➤ Legacy Ministries International ➤ Azusa Pacific University [Estrin 2013]</t>
-  </si>
-  <si>
-    <t>2009: $1,38 million  (total price of fragments APU1–5) [Davis 2017, 237 n.22]
-Michael R. Thompson → Lee Biondi ➤ Azusa Pacific University [Estrin 2013]</t>
   </si>
   <si>
     <t>2009: 700 000 NOK
@@ -6665,23 +6645,39 @@
 Aguttes Auction House/Aristophil Collection ➤ Anonymous Collector</t>
   </si>
   <si>
-    <t>2003: $ 250,000 for 4 frgs: 4 frgs: Deut 23:3-4; “Genesis 22”; Isa 24:16–17; Isa 26:19–27:1 (William Kando)
-2004: $ 680,000 (William Noah &amp; James Ferrell?)
-2022: € 50–60,000 for 4 frgs: “Genesis 22”; Deut 23:3–4; Isa 24:16–17; Isa 26:19–27:1 (Aguttes Auction House/Aristophil Collection)</t>
-  </si>
-  <si>
     <t>2003: $250,000 for 4 frgs: Deut 23:3-4; “Genesis 22”; Isa 24:16–17; Isa 26:19–27:1 (William Kando)
 2004: $580,000 (William Noah &amp; James Ferrell?)
 2022: € 50–60,000 for 4 frgs: “Genesis 22”; Deut 23:3–4; Isa 24:16–17; Isa 26:19–27:1 (Aguttes Auction House/Aristophil Collection)</t>
   </si>
   <si>
-    <t>2003: $250,000 for 4 frgs: 4 frgs: Deut 23:3-4; “Genesis 22”; Isa 24:16–17; Isa 26:19–27:1 (William Kando)
+    <t>2005: $3000 for ArugLev frgs a-d
+Bedouins ➤ Hanan Eshel</t>
+  </si>
+  <si>
+    <t>2009: $1,38 million (total price of fragments APU1–5) [Davis  2017, 237 n.22]
+Michael R. Thompson → Lee Biondi ➤ Azusa Pacific University [Estrin 2013]</t>
+  </si>
+  <si>
+    <t>2003: $ 250,000 for 4 frgs: Deut 23:3-4; “Genesis 22”; Isa 24:16–17; Isa 26:19–27:1 (William Kando)
+2004: $ 680,000 (William Noah &amp; James Ferrell?)
+2022: € 50–60,000 for 4 frgs: “Genesis 22”; Deut 23:3–4; Isa 24:16–17; Isa 26:19–27:1 (Aguttes Auction House/Aristophil Collection)</t>
+  </si>
+  <si>
+    <t>2003: $250,000 for 4 frgs: Deut 23:3-4; “Genesis 22”; Isa 24:16–17; Isa 26:19–27:1 (William Kando)
 2004: $470,000 (William Noah and James Ferrell?)
 2022: € 50–60,000 for 4 frgs: “Genesis 22”; Deut 23:3–4; Isa 24:16–17; Isa 26:19–27:1 (Aguttes Auction House/Aristophil Collection)</t>
   </si>
   <si>
-    <t>2003: $ 250,000 for 4 frgs: 4 frgs: Deut 23:3-4; “Genesis 22”; Isa 24:16–17; Isa 26:19–27:1 (William Kando)
+    <t>2003: $ 250,000 for 4 frgs: Deut 23:3-4; “Genesis 22”; Isa 24:16–17; Isa 26:19–27:1 (William Kando)
 2022: € 50–60,000 for 4 frgs: “Genesis 22”; Deut 23:3–4; Isa 24:16–17; Isa 26:19–27:1 (Aguttes Auction House/Aristophil Collection)</t>
+  </si>
+  <si>
+    <t>2008: $1.2 million (William Kando; Ganor according to Estrin 2013)
+2011: €30 mill (James H. Charlesworth to Hershel Shanks)
+2011: $42 mill
+(William Kando) [Fields 2011]
+2011– : $35–70 million (William Kando)
+2013: upwards of £26 million (Lee Biondi according to Parker 2013)</t>
   </si>
 </sst>
 </file>
@@ -8171,8 +8167,8 @@
   <dimension ref="A1:U104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="118" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8222,10 +8218,10 @@
   <sheetData>
     <row r="1" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -8237,19 +8233,19 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>493</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>3</v>
@@ -8258,10 +8254,10 @@
         <v>4</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>5</v>
@@ -8270,22 +8266,22 @@
         <v>6</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="92" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8314,7 +8310,7 @@
         <v>8</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -8325,16 +8321,16 @@
         <v>13</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="S2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="193" x14ac:dyDescent="0.2">
@@ -8351,7 +8347,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
@@ -8368,13 +8364,13 @@
         <v>17</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>20</v>
@@ -8383,16 +8379,16 @@
         <v>21</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="T3" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="130" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8417,16 +8413,16 @@
       <c r="H4" s="5"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -8443,10 +8439,10 @@
         <v>27</v>
       </c>
       <c r="T4" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="146" hidden="1" x14ac:dyDescent="0.2">
@@ -8487,16 +8483,16 @@
         <v>33</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T5" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U5" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="356" hidden="1" x14ac:dyDescent="0.2">
@@ -8514,7 +8510,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="5" t="s">
@@ -8523,7 +8519,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>35</v>
@@ -8549,10 +8545,10 @@
         <v>42</v>
       </c>
       <c r="T6" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
@@ -8573,13 +8569,13 @@
         <v>44</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="15"/>
       <c r="I7" s="11"/>
       <c r="J7" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>45</v>
@@ -8605,13 +8601,13 @@
         <v>52</v>
       </c>
       <c r="T7" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U7" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="240" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="195" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -8639,7 +8635,7 @@
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9" t="s">
@@ -8653,10 +8649,10 @@
         <v>58</v>
       </c>
       <c r="T8" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U8" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -8691,10 +8687,10 @@
         <v>60</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8725,7 +8721,7 @@
         <v>67</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>63</v>
@@ -8734,7 +8730,7 @@
         <v>64</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -8749,10 +8745,10 @@
         <v>69</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="156.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8773,7 +8769,7 @@
         <v>71</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
@@ -8783,7 +8779,7 @@
         <v>74</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>72</v>
@@ -8792,7 +8788,7 @@
         <v>73</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -8807,10 +8803,10 @@
         <v>77</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.2">
@@ -8845,10 +8841,10 @@
         <v>60</v>
       </c>
       <c r="T12" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U12" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="110" hidden="1" x14ac:dyDescent="0.2">
@@ -8874,7 +8870,7 @@
         <v>80</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -8887,10 +8883,10 @@
         <v>81</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U13" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -8925,10 +8921,10 @@
         <v>60</v>
       </c>
       <c r="T14" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U14" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="165" hidden="1" x14ac:dyDescent="0.2">
@@ -8957,7 +8953,7 @@
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>85</v>
@@ -8966,7 +8962,7 @@
         <v>86</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -8981,10 +8977,10 @@
         <v>90</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U15" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9011,14 +9007,14 @@
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>93</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -9033,10 +9029,10 @@
         <v>96</v>
       </c>
       <c r="T16" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U16" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9063,7 +9059,7 @@
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>99</v>
@@ -9072,13 +9068,13 @@
         <v>100</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>102</v>
@@ -9089,10 +9085,10 @@
         <v>103</v>
       </c>
       <c r="T17" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U17" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="83.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9139,10 +9135,10 @@
         <v>110</v>
       </c>
       <c r="T18" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U18" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" hidden="1" x14ac:dyDescent="0.2">
@@ -9175,10 +9171,10 @@
       <c r="R19" s="5"/>
       <c r="S19" s="14"/>
       <c r="T19" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U19" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="62" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9205,18 +9201,18 @@
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>114</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>75</v>
@@ -9227,10 +9223,10 @@
         <v>116</v>
       </c>
       <c r="T20" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -9265,10 +9261,10 @@
         <v>60</v>
       </c>
       <c r="T21" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U21" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="270" x14ac:dyDescent="0.2">
@@ -9305,10 +9301,10 @@
         <v>108</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>20</v>
@@ -9321,10 +9317,10 @@
         <v>122</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U22" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="75" hidden="1" x14ac:dyDescent="0.2">
@@ -9351,14 +9347,14 @@
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>125</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -9373,10 +9369,10 @@
         <v>128</v>
       </c>
       <c r="T23" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U23" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.2">
@@ -9401,14 +9397,14 @@
       <c r="H24" s="5"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>131</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -9421,10 +9417,10 @@
       <c r="R24" s="5"/>
       <c r="S24" s="14"/>
       <c r="T24" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U24" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="135" x14ac:dyDescent="0.2">
@@ -9451,38 +9447,38 @@
         <v>137</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="9" t="s">
         <v>135</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>138</v>
+        <v>589</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="S25" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="S25" s="14" t="s">
-        <v>141</v>
-      </c>
       <c r="T25" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U25" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="135" x14ac:dyDescent="0.2">
@@ -9496,51 +9492,51 @@
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>136</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="9" t="s">
         <v>135</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>138</v>
+        <v>589</v>
       </c>
       <c r="P26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q26" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="Q26" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="R26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="S26" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="S26" s="14" t="s">
-        <v>141</v>
-      </c>
       <c r="T26" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U26" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="135" x14ac:dyDescent="0.2">
@@ -9554,43 +9550,43 @@
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="9" t="s">
         <v>135</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>138</v>
+        <v>589</v>
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T27" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -9604,7 +9600,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="5"/>
@@ -9625,10 +9621,10 @@
         <v>60</v>
       </c>
       <c r="T28" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -9642,7 +9638,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="5"/>
@@ -9663,10 +9659,10 @@
         <v>60</v>
       </c>
       <c r="T29" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U29" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -9681,24 +9677,24 @@
         <v>194</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
@@ -9706,17 +9702,17 @@
         <v>20</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T30" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -9730,7 +9726,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="5"/>
@@ -9751,10 +9747,10 @@
         <v>60</v>
       </c>
       <c r="T31" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U31" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9769,27 +9765,27 @@
         <v>107</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="F32" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>38</v>
@@ -9800,19 +9796,19 @@
         <v>20</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>51</v>
       </c>
       <c r="S32" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T32" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U32" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -9826,7 +9822,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="5"/>
@@ -9847,10 +9843,10 @@
         <v>60</v>
       </c>
       <c r="T33" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U33" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.2">
@@ -9865,30 +9861,30 @@
         <v>108</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>166</v>
-      </c>
       <c r="F34" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -9896,19 +9892,19 @@
         <v>12</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>51</v>
       </c>
       <c r="S34" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T34" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U34" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="100" hidden="1" x14ac:dyDescent="0.2">
@@ -9923,30 +9919,30 @@
         <v>153</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N35" s="9"/>
       <c r="O35" s="9" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="P35" s="8">
         <v>7</v>
@@ -9957,10 +9953,10 @@
         <v>116</v>
       </c>
       <c r="T35" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="83.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9975,17 +9971,17 @@
         <v>163</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>180</v>
-      </c>
       <c r="F36" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
@@ -9994,25 +9990,25 @@
         <v>106</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q36" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="Q36" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T36" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U36" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10027,42 +10023,42 @@
         <v>164</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="5"/>
       <c r="L37" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q37" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="R37" s="5"/>
       <c r="S37" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U37" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -10076,7 +10072,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="5"/>
@@ -10097,10 +10093,10 @@
         <v>60</v>
       </c>
       <c r="T38" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U38" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="180" x14ac:dyDescent="0.2">
@@ -10115,45 +10111,45 @@
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="5"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="P39" s="9" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="S39" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="S39" s="14" t="s">
-        <v>198</v>
-      </c>
       <c r="T39" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U39" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="388.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10168,48 +10164,48 @@
         <v>154</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P40" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q40" s="9"/>
       <c r="R40" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="S40" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="S40" s="14" t="s">
-        <v>205</v>
-      </c>
       <c r="T40" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U40" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10223,7 +10219,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="5"/>
@@ -10244,10 +10240,10 @@
         <v>60</v>
       </c>
       <c r="T41" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U41" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10262,25 +10258,25 @@
         <v>109</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>38</v>
@@ -10291,19 +10287,19 @@
         <v>75</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>51</v>
       </c>
       <c r="S42" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T42" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U42" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="70" hidden="1" x14ac:dyDescent="0.2">
@@ -10317,17 +10313,17 @@
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>32</v>
@@ -10338,22 +10334,22 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q43" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="Q43" s="9" t="s">
+      <c r="R43" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="R43" s="6" t="s">
+      <c r="S43" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="S43" s="14" t="s">
-        <v>220</v>
-      </c>
       <c r="T43" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="U43" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="56" hidden="1" x14ac:dyDescent="0.2">
@@ -10367,20 +10363,20 @@
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="I44" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>224</v>
-      </c>
       <c r="J44" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="9"/>
@@ -10388,22 +10384,22 @@
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q44" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="R44" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="S44" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="S44" s="14" t="s">
-        <v>227</v>
-      </c>
       <c r="T44" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="U44" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -10417,7 +10413,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="5"/>
@@ -10438,10 +10434,10 @@
         <v>60</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="U45" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.2">
@@ -10455,12 +10451,12 @@
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9" t="s">
@@ -10472,18 +10468,18 @@
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q46" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="Q46" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="R46" s="5"/>
       <c r="S46" s="14"/>
       <c r="T46" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="U46" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.2">
@@ -10498,26 +10494,26 @@
         <v>120</v>
       </c>
       <c r="D47" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -10525,19 +10521,19 @@
         <v>12</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R47" s="5" t="s">
         <v>51</v>
       </c>
       <c r="S47" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="U47" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10552,20 +10548,20 @@
         <v>112</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="9" t="s">
@@ -10577,19 +10573,19 @@
         <v>20</v>
       </c>
       <c r="Q48" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="R48" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="R48" s="5" t="s">
+      <c r="S48" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="S48" s="14" t="s">
-        <v>244</v>
-      </c>
       <c r="T48" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U48" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10604,25 +10600,25 @@
         <v>113</v>
       </c>
       <c r="D49" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>246</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>38</v>
@@ -10639,13 +10635,13 @@
         <v>51</v>
       </c>
       <c r="S49" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T49" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U49" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -10659,7 +10655,7 @@
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="5"/>
@@ -10680,10 +10676,10 @@
         <v>60</v>
       </c>
       <c r="T50" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U50" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.2">
@@ -10698,30 +10694,30 @@
         <v>114</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>252</v>
-      </c>
       <c r="F51" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
@@ -10729,19 +10725,19 @@
         <v>12</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="S51" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T51" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U51" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.2">
@@ -10756,10 +10752,10 @@
         <v>170</v>
       </c>
       <c r="D52" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="5"/>
@@ -10769,7 +10765,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
@@ -10777,17 +10773,17 @@
         <v>12</v>
       </c>
       <c r="Q52" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R52" s="5"/>
       <c r="S52" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T52" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U52" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10802,28 +10798,28 @@
         <v>115</v>
       </c>
       <c r="D53" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>264</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
@@ -10831,17 +10827,17 @@
         <v>20</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R53" s="5"/>
       <c r="S53" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T53" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U53" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -10855,7 +10851,7 @@
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="5"/>
@@ -10876,10 +10872,10 @@
         <v>60</v>
       </c>
       <c r="T54" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U54" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10893,7 +10889,7 @@
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="5"/>
@@ -10914,10 +10910,10 @@
         <v>60</v>
       </c>
       <c r="T55" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U55" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="120" hidden="1" x14ac:dyDescent="0.2">
@@ -10932,24 +10928,24 @@
         <v>201</v>
       </c>
       <c r="D56" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
@@ -10957,17 +10953,17 @@
         <v>20</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R56" s="5"/>
       <c r="S56" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T56" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U56" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10982,50 +10978,50 @@
         <v>122</v>
       </c>
       <c r="D57" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>278</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O57" s="9"/>
       <c r="P57" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q57" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="R57" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="S57" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="R57" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="S57" s="14" t="s">
-        <v>283</v>
-      </c>
       <c r="T57" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U57" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11040,28 +11036,28 @@
         <v>118</v>
       </c>
       <c r="D58" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H58" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
@@ -11069,19 +11065,19 @@
         <v>12</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R58" s="5" t="s">
         <v>51</v>
       </c>
       <c r="S58" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T58" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U58" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="169.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11096,32 +11092,32 @@
         <v>199</v>
       </c>
       <c r="D59" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="F59" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="K59" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
@@ -11129,19 +11125,19 @@
         <v>20</v>
       </c>
       <c r="Q59" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="S59" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="R59" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="S59" s="14" t="s">
-        <v>300</v>
-      </c>
       <c r="T59" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U59" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11155,25 +11151,25 @@
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>304</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="5"/>
       <c r="L60" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
@@ -11183,13 +11179,13 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="5"/>
       <c r="S60" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T60" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U60" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11204,13 +11200,13 @@
         <v>165</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="F61" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>308</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -11221,25 +11217,25 @@
         <v>106</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R61" s="5"/>
       <c r="S61" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T61" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U61" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -11253,7 +11249,7 @@
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="5"/>
@@ -11274,10 +11270,10 @@
         <v>60</v>
       </c>
       <c r="T62" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U62" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="75" hidden="1" x14ac:dyDescent="0.2">
@@ -11291,7 +11287,7 @@
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="5"/>
@@ -11302,7 +11298,7 @@
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -11311,13 +11307,13 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="5"/>
       <c r="S63" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T63" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U63" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11331,7 +11327,7 @@
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="5"/>
@@ -11352,10 +11348,10 @@
         <v>60</v>
       </c>
       <c r="T64" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U64" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.2">
@@ -11370,22 +11366,22 @@
         <v>119</v>
       </c>
       <c r="D65" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L65" s="9"/>
       <c r="M65" s="9" t="s">
@@ -11397,17 +11393,17 @@
         <v>20</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R65" s="5"/>
       <c r="S65" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T65" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U65" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="183" x14ac:dyDescent="0.2">
@@ -11421,17 +11417,17 @@
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="I66" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="5"/>
@@ -11439,31 +11435,31 @@
         <v>17</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="P66" s="9" t="s">
         <v>88</v>
       </c>
       <c r="Q66" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="R66" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="R66" s="5" t="s">
+      <c r="S66" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="S66" s="14" t="s">
-        <v>327</v>
-      </c>
       <c r="T66" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U66" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="212" x14ac:dyDescent="0.2">
@@ -11477,49 +11473,49 @@
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="5"/>
       <c r="L67" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="P67" s="9" t="s">
         <v>75</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S67" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T67" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U67" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="210" hidden="1" x14ac:dyDescent="0.2">
@@ -11533,7 +11529,7 @@
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="5"/>
@@ -11544,26 +11540,26 @@
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="P68" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q68" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="Q68" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="R68" s="5"/>
       <c r="S68" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T68" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U68" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="370" hidden="1" x14ac:dyDescent="0.2">
@@ -11578,29 +11574,29 @@
         <v>116</v>
       </c>
       <c r="D69" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>338</v>
-      </c>
       <c r="F69" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="I69" s="11"/>
       <c r="J69" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M69" s="9" t="s">
         <v>38</v>
@@ -11608,22 +11604,22 @@
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="P69" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R69" s="5" t="s">
         <v>41</v>
       </c>
       <c r="S69" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T69" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="U69" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="190" x14ac:dyDescent="0.2">
@@ -11638,44 +11634,44 @@
         <v>195</v>
       </c>
       <c r="D70" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>345</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>346</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="9" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="O70" s="9"/>
       <c r="P70" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q70" s="9"/>
       <c r="R70" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="S70" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="S70" s="14" t="s">
-        <v>349</v>
-      </c>
       <c r="T70" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="U70" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11690,28 +11686,28 @@
         <v>156</v>
       </c>
       <c r="D71" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>351</v>
-      </c>
       <c r="F71" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="I71" s="9" t="s">
         <v>353</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>354</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="5"/>
       <c r="L71" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
@@ -11719,19 +11715,19 @@
         <v>12</v>
       </c>
       <c r="Q71" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="S71" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="R71" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="S71" s="14" t="s">
-        <v>356</v>
-      </c>
       <c r="T71" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="U71" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.2">
@@ -11746,24 +11742,24 @@
         <v>196</v>
       </c>
       <c r="D72" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>358</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L72" s="9"/>
       <c r="M72" s="9" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
@@ -11772,16 +11768,16 @@
       </c>
       <c r="Q72" s="9"/>
       <c r="R72" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="S72" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="S72" s="14" t="s">
-        <v>361</v>
-      </c>
       <c r="T72" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U72" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11796,34 +11792,34 @@
         <v>155</v>
       </c>
       <c r="D73" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E73" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>363</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K73" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="L73" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="L73" s="9" t="s">
-        <v>365</v>
-      </c>
       <c r="M73" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
       <c r="P73" s="9" t="s">
         <v>75</v>
@@ -11831,13 +11827,13 @@
       <c r="Q73" s="9"/>
       <c r="R73" s="5"/>
       <c r="S73" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T73" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U73" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11852,17 +11848,17 @@
         <v>166</v>
       </c>
       <c r="D74" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="F74" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>370</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -11879,17 +11875,17 @@
         <v>20</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R74" s="5"/>
       <c r="S74" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T74" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U74" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="85.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11904,10 +11900,10 @@
         <v>167</v>
       </c>
       <c r="D75" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>375</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="5"/>
@@ -11927,17 +11923,17 @@
         <v>12</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R75" s="5"/>
       <c r="S75" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U75" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.2">
@@ -11952,24 +11948,24 @@
         <v>200</v>
       </c>
       <c r="D76" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>379</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
@@ -11977,19 +11973,19 @@
         <v>12</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="R76" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="S76" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="S76" s="14" t="s">
-        <v>382</v>
-      </c>
       <c r="T76" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U76" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="20" hidden="1" x14ac:dyDescent="0.2">
@@ -12003,7 +11999,7 @@
       <c r="C77" s="8"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="5"/>
@@ -12024,10 +12020,10 @@
         <v>60</v>
       </c>
       <c r="T77" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="U77" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="90" hidden="1" x14ac:dyDescent="0.2">
@@ -12041,7 +12037,7 @@
       <c r="C78" s="8"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="5"/>
@@ -12059,17 +12055,17 @@
         <v>20</v>
       </c>
       <c r="Q78" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R78" s="6"/>
       <c r="S78" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T78" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="U78" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="225" hidden="1" x14ac:dyDescent="0.2">
@@ -12083,7 +12079,7 @@
       <c r="C79" s="8"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="5"/>
@@ -12092,10 +12088,10 @@
       <c r="J79" s="13"/>
       <c r="K79" s="5"/>
       <c r="L79" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M79" s="24" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
@@ -12105,13 +12101,13 @@
       <c r="Q79" s="13"/>
       <c r="R79" s="5"/>
       <c r="S79" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="T79" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="U79" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12126,10 +12122,10 @@
         <v>181</v>
       </c>
       <c r="D80" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="6"/>
@@ -12139,7 +12135,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
@@ -12147,19 +12143,19 @@
         <v>12</v>
       </c>
       <c r="Q80" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="R80" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="R80" s="7" t="s">
+      <c r="S80" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="S80" s="14" t="s">
-        <v>395</v>
-      </c>
       <c r="T80" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="U80" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.2">
@@ -12173,7 +12169,7 @@
       <c r="C81" s="8"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="6"/>
@@ -12194,10 +12190,10 @@
         <v>60</v>
       </c>
       <c r="T81" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="U81" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.2">
@@ -12212,24 +12208,24 @@
         <v>197</v>
       </c>
       <c r="D82" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>397</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>398</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
@@ -12238,16 +12234,16 @@
       </c>
       <c r="Q82" s="9"/>
       <c r="R82" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="S82" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="S82" s="14" t="s">
-        <v>401</v>
-      </c>
       <c r="T82" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U82" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.2">
@@ -12262,24 +12258,24 @@
         <v>198</v>
       </c>
       <c r="D83" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>402</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>403</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="9" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
@@ -12288,16 +12284,16 @@
       </c>
       <c r="Q83" s="9"/>
       <c r="R83" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="S83" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="S83" s="14" t="s">
-        <v>406</v>
-      </c>
       <c r="T83" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U83" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="49" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12311,11 +12307,11 @@
       <c r="C84" s="8"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="9"/>
@@ -12334,10 +12330,10 @@
       <c r="R84" s="5"/>
       <c r="S84" s="14"/>
       <c r="T84" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="U84" s="20" t="s">
         <v>504</v>
-      </c>
-      <c r="U84" s="20" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12352,48 +12348,48 @@
         <v>123</v>
       </c>
       <c r="D85" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="E85" s="9" t="s">
-        <v>410</v>
-      </c>
       <c r="F85" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I85" s="13"/>
       <c r="J85" s="13" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L85" s="9"/>
       <c r="M85" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
       <c r="P85" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q85" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="R85" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="R85" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="S85" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="T85" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="U85" s="20" t="s">
         <v>504</v>
-      </c>
-      <c r="U85" s="20" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12408,24 +12404,24 @@
         <v>124</v>
       </c>
       <c r="D86" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E86" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="E86" s="9" t="s">
-        <v>416</v>
-      </c>
       <c r="F86" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L86" s="9"/>
       <c r="M86" s="9" t="s">
@@ -12437,17 +12433,17 @@
         <v>75</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R86" s="5"/>
       <c r="S86" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="T86" s="9" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="U86" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="209" hidden="1" x14ac:dyDescent="0.2">
@@ -12462,32 +12458,32 @@
         <v>125</v>
       </c>
       <c r="D87" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>421</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>422</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="H87" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="I87" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="I87" s="9" t="s">
-        <v>426</v>
-      </c>
       <c r="J87" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L87" s="10" t="s">
         <v>17</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
@@ -12495,17 +12491,17 @@
         <v>75</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R87" s="5"/>
       <c r="S87" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="T87" s="9" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="U87" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.2">
@@ -12520,46 +12516,46 @@
         <v>126</v>
       </c>
       <c r="D88" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>430</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="5"/>
       <c r="H88" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L88" s="9"/>
       <c r="M88" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N88" s="9"/>
       <c r="O88" s="9" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="P88" s="9" t="s">
         <v>12</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R88" s="6"/>
       <c r="S88" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T88" s="9" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="U88" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="245" hidden="1" x14ac:dyDescent="0.2">
@@ -12574,28 +12570,28 @@
         <v>202</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L89" s="9"/>
       <c r="M89" s="9" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
@@ -12603,19 +12599,19 @@
         <v>88</v>
       </c>
       <c r="Q89" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="R89" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="S89" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="R89" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="S89" s="14" t="s">
-        <v>440</v>
-      </c>
       <c r="T89" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="U89" s="20" t="s">
         <v>507</v>
-      </c>
-      <c r="U89" s="20" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="55" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12629,7 +12625,7 @@
       <c r="C90" s="8"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="5"/>
@@ -12647,13 +12643,13 @@
       <c r="Q90" s="9"/>
       <c r="R90" s="5"/>
       <c r="S90" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="T90" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="U90" s="20" t="s">
         <v>507</v>
-      </c>
-      <c r="U90" s="20" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.2">
@@ -12667,10 +12663,10 @@
       <c r="C91" s="8"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="F91" s="9" t="s">
         <v>442</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>443</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -12688,10 +12684,10 @@
       <c r="R91" s="5"/>
       <c r="S91" s="14"/>
       <c r="T91" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="U91" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.2">
@@ -12705,10 +12701,10 @@
       <c r="C92" s="8"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -12723,15 +12719,15 @@
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
       <c r="Q92" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R92" s="5"/>
       <c r="S92" s="14"/>
       <c r="T92" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="U92" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.2">
@@ -12746,26 +12742,26 @@
         <v>130</v>
       </c>
       <c r="D93" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="E93" s="9" t="s">
-        <v>447</v>
-      </c>
       <c r="F93" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L93" s="9"/>
       <c r="M93" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
@@ -12773,15 +12769,15 @@
         <v>88</v>
       </c>
       <c r="Q93" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R93" s="5"/>
       <c r="S93" s="14"/>
       <c r="T93" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="U93" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.2">
@@ -12797,17 +12793,17 @@
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L94" s="9"/>
       <c r="M94" s="9" t="s">
@@ -12819,15 +12815,15 @@
         <v>20</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="R94" s="5"/>
       <c r="S94" s="14"/>
       <c r="T94" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U94" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="86.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12842,10 +12838,10 @@
         <v>168</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="5"/>
@@ -12857,7 +12853,7 @@
         <v>106</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
@@ -12865,17 +12861,17 @@
         <v>75</v>
       </c>
       <c r="Q95" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="R95" s="5"/>
       <c r="S95" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="T95" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U95" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.2">
@@ -12889,7 +12885,7 @@
       <c r="C96" s="8"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="5"/>
@@ -12899,23 +12895,23 @@
       <c r="K96" s="5"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
       <c r="P96" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q96" s="9" t="s">
         <v>457</v>
-      </c>
-      <c r="Q96" s="9" t="s">
-        <v>458</v>
       </c>
       <c r="R96" s="5"/>
       <c r="S96" s="14"/>
       <c r="T96" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U96" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="105" hidden="1" x14ac:dyDescent="0.2">
@@ -12929,14 +12925,14 @@
       <c r="C97" s="8"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K97" s="5"/>
       <c r="L97" s="9"/>
@@ -12948,10 +12944,10 @@
       <c r="R97" s="5"/>
       <c r="S97" s="14"/>
       <c r="T97" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U97" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="105" hidden="1" x14ac:dyDescent="0.2">
@@ -12965,14 +12961,14 @@
       <c r="C98" s="8"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K98" s="5"/>
       <c r="L98" s="9"/>
@@ -12984,10 +12980,10 @@
       <c r="R98" s="5"/>
       <c r="S98" s="14"/>
       <c r="T98" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U98" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.2">
@@ -13001,21 +12997,21 @@
       <c r="C99" s="8"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L99" s="9"/>
       <c r="M99" s="9" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
@@ -13024,10 +13020,10 @@
       <c r="R99" s="5"/>
       <c r="S99" s="14"/>
       <c r="T99" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U99" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.2">
@@ -13041,21 +13037,21 @@
       <c r="C100" s="8"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L100" s="9"/>
       <c r="M100" s="9" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
@@ -13064,10 +13060,10 @@
       <c r="R100" s="5"/>
       <c r="S100" s="14"/>
       <c r="T100" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U100" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.2">
@@ -13081,21 +13077,21 @@
       <c r="C101" s="8"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L101" s="9"/>
       <c r="M101" s="9" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N101" s="9"/>
       <c r="O101" s="9"/>
@@ -13104,10 +13100,10 @@
       <c r="R101" s="5"/>
       <c r="S101" s="14"/>
       <c r="T101" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U101" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="75" x14ac:dyDescent="0.2">
@@ -13121,22 +13117,22 @@
       <c r="C102" s="8"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="K102" s="5"/>
       <c r="L102" s="9"/>
       <c r="M102" s="9" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N102" s="9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O102" s="9"/>
       <c r="P102" s="9"/>
@@ -13144,10 +13140,10 @@
       <c r="R102" s="5"/>
       <c r="S102" s="14"/>
       <c r="T102" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U102" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.2">
@@ -13155,12 +13151,12 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="9"/>
       <c r="E103" s="22" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="5"/>
@@ -13170,7 +13166,7 @@
       <c r="K103" s="5"/>
       <c r="L103" s="9"/>
       <c r="M103" s="9" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
@@ -13179,10 +13175,10 @@
       <c r="R103" s="5"/>
       <c r="S103" s="14"/>
       <c r="T103" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U103" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.2">
@@ -13190,12 +13186,12 @@
         <v>103</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="9"/>
       <c r="E104" s="22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="5"/>
@@ -13205,7 +13201,7 @@
       <c r="K104" s="5"/>
       <c r="L104" s="9"/>
       <c r="M104" s="9" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
@@ -13214,10 +13210,10 @@
       <c r="R104" s="5"/>
       <c r="S104" s="14"/>
       <c r="T104" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U104" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
